--- a/prisma/seed/data/avenue39_data.xlsx
+++ b/prisma/seed/data/avenue39_data.xlsx
@@ -1205,10 +1205,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C2" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D2" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E2" t="str">
         <v>ROLF-3339</v>
@@ -1294,10 +1294,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C3" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D3" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E3" t="str">
         <v>ROLF-3145</v>
@@ -1383,10 +1383,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C4" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D4" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E4" t="str">
         <v>ROLF-3337</v>
@@ -1472,10 +1472,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C5" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D5" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E5" t="str">
         <v>ROLF-3338</v>
@@ -1561,10 +1561,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C6" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D6" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E6" t="str">
         <v>ROLF-3340</v>
@@ -1650,10 +1650,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C7" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D7" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E7" t="str">
         <v>ROLF-3341</v>
@@ -1739,10 +1739,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C8" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D8" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E8" t="str">
         <v>ROLF-3342</v>
@@ -1828,10 +1828,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C9" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D9" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E9" t="str">
         <v>ROLF-3343</v>
@@ -1917,10 +1917,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C10" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D10" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E10" t="str">
         <v>ROLF-3118</v>
@@ -2006,10 +2006,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C11" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D11" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E11" t="str">
         <v>ROLF-3098</v>
@@ -2095,10 +2095,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C12" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D12" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E12" t="str">
         <v>ROLF-3099</v>
@@ -2184,10 +2184,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C13" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D13" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E13" t="str">
         <v>ROLF-3100</v>
@@ -2273,10 +2273,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C14" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D14" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E14" t="str">
         <v>ROLF-3101</v>
@@ -2362,10 +2362,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C15" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D15" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E15" t="str">
         <v>ROLF-3102</v>
@@ -2451,10 +2451,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C16" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D16" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E16" t="str">
         <v>ROLF-3103</v>
@@ -2540,10 +2540,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C17" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D17" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E17" t="str">
         <v>ROLF-3104</v>
@@ -2629,10 +2629,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C18" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D18" t="str">
-        <v>910dbc0e-f1bc-4f81-8fac-f37d617821b2</v>
+        <v>9e31d7cd-a5fc-45c2-9980-f3bf08e91447</v>
       </c>
       <c r="E18" t="str">
         <v>ROLF-3113</v>
@@ -2718,10 +2718,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C19" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D19" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E19" t="str">
         <v>ROLF-3115</v>
@@ -2807,10 +2807,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C20" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D20" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E20" t="str">
         <v>ROLF-3117</v>
@@ -2896,10 +2896,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C21" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D21" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E21" t="str">
         <v>ROLF-3119</v>
@@ -2985,10 +2985,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C22" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D22" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E22" t="str">
         <v>ROLF-3121</v>
@@ -3074,10 +3074,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C23" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D23" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E23" t="str">
         <v>ROLF-3122</v>
@@ -3163,10 +3163,10 @@
         <v>See-through Roller Blinds</v>
       </c>
       <c r="C24" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D24" t="str">
-        <v>6d7aff0c-1254-47c5-bcc0-602d87872b60</v>
+        <v>4f41b68d-c910-4d90-b3e4-59a56f259092</v>
       </c>
       <c r="E24" t="str">
         <v>ROLF-3123</v>
@@ -3252,10 +3252,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C25" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D25" t="str">
-        <v>910dbc0e-f1bc-4f81-8fac-f37d617821b2</v>
+        <v>9e31d7cd-a5fc-45c2-9980-f3bf08e91447</v>
       </c>
       <c r="E25" t="str">
         <v>ROLF-3124</v>
@@ -3341,10 +3341,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C26" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D26" t="str">
-        <v>910dbc0e-f1bc-4f81-8fac-f37d617821b2</v>
+        <v>9e31d7cd-a5fc-45c2-9980-f3bf08e91447</v>
       </c>
       <c r="E26" t="str">
         <v>ROLF-3125</v>
@@ -3430,10 +3430,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C27" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D27" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E27" t="str">
         <v>ROLF-3106</v>
@@ -3519,10 +3519,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C28" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D28" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E28" t="str">
         <v>ROLF-3105</v>
@@ -3608,10 +3608,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C29" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D29" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E29" t="str">
         <v>ROLF-3107</v>
@@ -3697,10 +3697,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C30" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D30" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E30" t="str">
         <v>ROLF-3108</v>
@@ -3786,10 +3786,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C31" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D31" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E31" t="str">
         <v>ROLF-3109</v>
@@ -3875,10 +3875,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C32" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D32" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E32" t="str">
         <v>ROLF-3111</v>
@@ -3964,10 +3964,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C33" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D33" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E33" t="str">
         <v>ROLF-3112</v>
@@ -4053,10 +4053,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C34" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D34" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E34" t="str">
         <v>ROLF-3127</v>
@@ -4142,10 +4142,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C35" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D35" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E35" t="str">
         <v>ROLF-3128</v>
@@ -4231,10 +4231,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C36" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D36" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E36" t="str">
         <v>ROLF-3129</v>
@@ -4320,10 +4320,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C37" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D37" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E37" t="str">
         <v>ROLF-3130</v>
@@ -4409,10 +4409,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C38" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D38" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E38" t="str">
         <v>ROLF-3131</v>
@@ -4498,10 +4498,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C39" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D39" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E39" t="str">
         <v>ROLF-3132</v>
@@ -4587,10 +4587,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C40" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D40" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E40" t="str">
         <v>ROLF-3133</v>
@@ -4676,10 +4676,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C41" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D41" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E41" t="str">
         <v>ROLF-3134</v>
@@ -4765,10 +4765,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C42" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D42" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E42" t="str">
         <v>ROLF-3135</v>
@@ -4854,10 +4854,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C43" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D43" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E43" t="str">
         <v>ROLF-3136</v>
@@ -4943,10 +4943,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C44" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D44" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E44" t="str">
         <v>ROLF-3137</v>
@@ -5032,10 +5032,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C45" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D45" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E45" t="str">
         <v>ROLF-3138</v>
@@ -5121,10 +5121,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C46" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D46" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E46" t="str">
         <v>ROLF-3139</v>
@@ -5210,10 +5210,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C47" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D47" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E47" t="str">
         <v>ROLF-3140</v>
@@ -5299,10 +5299,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C48" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D48" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E48" t="str">
         <v>ROLF-3141</v>
@@ -5388,10 +5388,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C49" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D49" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E49" t="str">
         <v>ROLF-3142</v>
@@ -5477,10 +5477,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C50" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D50" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E50" t="str">
         <v>ROLF-3143</v>
@@ -5566,10 +5566,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C51" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D51" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E51" t="str">
         <v>ROLF-3144</v>
@@ -5655,10 +5655,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C52" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D52" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E52" t="str">
         <v>ROLF-3756TBO</v>
@@ -5744,10 +5744,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C53" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D53" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E53" t="str">
         <v>ROLF-3761TBO</v>
@@ -5833,10 +5833,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C54" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D54" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E54" t="str">
         <v>ROLF-3762TBO</v>
@@ -5922,10 +5922,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C55" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D55" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E55" t="str">
         <v>ROLF-3770TBO</v>
@@ -6011,10 +6011,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C56" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D56" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E56" t="str">
         <v>ROLF-3748TBO</v>
@@ -6100,10 +6100,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C57" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D57" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E57" t="str">
         <v>ROLF-3749TBO</v>
@@ -6189,10 +6189,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C58" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D58" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E58" t="str">
         <v>ROLF-3750TBO</v>
@@ -6278,10 +6278,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C59" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D59" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E59" t="str">
         <v>ROLF-3751TBO</v>
@@ -6367,10 +6367,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C60" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D60" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E60" t="str">
         <v>ROLF-3752TBO</v>
@@ -6456,10 +6456,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C61" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D61" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E61" t="str">
         <v>ROLF-3753TBO</v>
@@ -6545,10 +6545,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C62" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D62" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E62" t="str">
         <v>ROLF-3754TBO</v>
@@ -6634,10 +6634,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C63" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D63" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E63" t="str">
         <v>ROLF-3755TBO</v>
@@ -6723,10 +6723,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C64" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D64" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E64" t="str">
         <v>ROLF-3757TBO</v>
@@ -6812,10 +6812,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C65" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D65" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E65" t="str">
         <v>ROLF-3758TBO</v>
@@ -6901,10 +6901,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C66" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D66" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E66" t="str">
         <v>ROLF-3759TBO</v>
@@ -6990,10 +6990,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C67" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D67" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E67" t="str">
         <v>ROLF-3760TBO</v>
@@ -7079,10 +7079,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C68" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D68" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E68" t="str">
         <v>ROLF-3763TBO</v>
@@ -7168,10 +7168,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C69" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D69" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E69" t="str">
         <v>ROLF-3764TBO</v>
@@ -7257,10 +7257,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C70" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D70" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E70" t="str">
         <v>ROLF-3765TBO</v>
@@ -7346,10 +7346,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C71" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D71" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E71" t="str">
         <v>ROLF-3766TBO</v>
@@ -7435,10 +7435,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C72" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D72" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E72" t="str">
         <v>ROLF-3767TBO</v>
@@ -7524,10 +7524,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C73" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D73" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E73" t="str">
         <v>ROLF-3768TBO</v>
@@ -7613,10 +7613,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C74" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D74" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E74" t="str">
         <v>ROLF-3769TBO</v>
@@ -7702,10 +7702,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C75" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D75" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E75" t="str">
         <v>ROLF-3771TBO</v>
@@ -7791,10 +7791,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C76" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D76" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E76" t="str">
         <v>ROLF-3772TBO</v>
@@ -7880,10 +7880,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C77" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D77" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E77" t="str">
         <v>ROLF-3773TBO</v>
@@ -7969,10 +7969,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C78" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D78" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E78" t="str">
         <v>ROLF-3774TBO</v>
@@ -8058,10 +8058,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C79" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D79" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E79" t="str">
         <v>ROLF-3775TBO</v>
@@ -8147,10 +8147,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C80" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D80" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E80" t="str">
         <v>ROLF-3776TBO</v>
@@ -8236,10 +8236,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C81" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D81" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E81" t="str">
         <v>ROLF-3777TBO</v>
@@ -8325,10 +8325,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C82" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D82" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E82" t="str">
         <v>ROLF-3778TBO</v>
@@ -8414,10 +8414,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C83" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D83" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E83" t="str">
         <v>ROLF-3779TBO</v>
@@ -8503,10 +8503,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C84" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D84" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E84" t="str">
         <v>ROLF-3693FOC</v>
@@ -8592,10 +8592,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C85" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D85" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E85" t="str">
         <v>ROLF-3733PBO</v>
@@ -8681,10 +8681,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C86" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D86" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E86" t="str">
         <v>ROLF-3653STY</v>
@@ -8770,10 +8770,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C87" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D87" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E87" t="str">
         <v>ROLF-3654STY</v>
@@ -8859,10 +8859,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C88" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D88" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E88" t="str">
         <v>ROLF-3655STY</v>
@@ -8948,10 +8948,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C89" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D89" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E89" t="str">
         <v>ROLF-3656STY</v>
@@ -9037,10 +9037,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C90" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D90" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E90" t="str">
         <v>ROLF-3657STY</v>
@@ -9126,10 +9126,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C91" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D91" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E91" t="str">
         <v>ROLF-3658STY</v>
@@ -9215,10 +9215,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C92" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D92" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E92" t="str">
         <v>ROLF-3659STY</v>
@@ -9304,10 +9304,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C93" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D93" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E93" t="str">
         <v>ROLF-3660STY</v>
@@ -9393,10 +9393,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C94" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D94" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E94" t="str">
         <v>ROLF-3661STY</v>
@@ -9482,10 +9482,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C95" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D95" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E95" t="str">
         <v>ROLF-3662STY</v>
@@ -9571,10 +9571,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C96" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D96" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E96" t="str">
         <v>ROLF-3663STY</v>
@@ -9660,10 +9660,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C97" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D97" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E97" t="str">
         <v>ROLF-3664STY</v>
@@ -9749,10 +9749,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C98" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D98" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E98" t="str">
         <v>ROLF-3665STY</v>
@@ -9838,10 +9838,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C99" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D99" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E99" t="str">
         <v>ROLF-3666STY</v>
@@ -9927,10 +9927,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C100" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D100" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E100" t="str">
         <v>ROLF-3667STY</v>
@@ -10016,10 +10016,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C101" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D101" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E101" t="str">
         <v>ROLF-3668STY</v>
@@ -10105,10 +10105,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C102" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D102" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E102" t="str">
         <v>ROLF-3669STY</v>
@@ -10194,10 +10194,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C103" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D103" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E103" t="str">
         <v>ROLF-3670STY</v>
@@ -10283,10 +10283,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C104" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D104" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E104" t="str">
         <v>ROLF-3671STY</v>
@@ -10372,10 +10372,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C105" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D105" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E105" t="str">
         <v>ROLF-3672STY</v>
@@ -10461,10 +10461,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C106" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D106" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E106" t="str">
         <v>ROLF-3673STY</v>
@@ -10550,10 +10550,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C107" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D107" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E107" t="str">
         <v>ROLF-3674STY</v>
@@ -10639,10 +10639,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C108" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D108" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E108" t="str">
         <v>ROLF-3675STY</v>
@@ -10728,10 +10728,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C109" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D109" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E109" t="str">
         <v>ROLF-3676STY</v>
@@ -10817,10 +10817,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C110" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D110" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E110" t="str">
         <v>ROLF-3677STY</v>
@@ -10906,10 +10906,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C111" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D111" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E111" t="str">
         <v>ROLF-3678STY</v>
@@ -10995,10 +10995,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C112" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D112" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E112" t="str">
         <v>ROLF-3679STY</v>
@@ -11084,10 +11084,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C113" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D113" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E113" t="str">
         <v>ROLF-3680STY</v>
@@ -11173,10 +11173,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C114" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D114" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E114" t="str">
         <v>ROLF-3681STY</v>
@@ -11262,10 +11262,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C115" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D115" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E115" t="str">
         <v>ROLF-3682STY</v>
@@ -11351,10 +11351,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C116" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D116" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E116" t="str">
         <v>ROLF-3683STY</v>
@@ -11440,10 +11440,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C117" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D117" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E117" t="str">
         <v>ROLF-3684FOC</v>
@@ -11529,10 +11529,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C118" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D118" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E118" t="str">
         <v>ROLF-3685FOC</v>
@@ -11618,10 +11618,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C119" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D119" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E119" t="str">
         <v>ROLF-3686FOC</v>
@@ -11707,10 +11707,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C120" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D120" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E120" t="str">
         <v>ROLF-3687FOC</v>
@@ -11796,10 +11796,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C121" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D121" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E121" t="str">
         <v>ROLF-3688FOC</v>
@@ -11885,10 +11885,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C122" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D122" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E122" t="str">
         <v>ROLF-3689FOC</v>
@@ -11974,10 +11974,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C123" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D123" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E123" t="str">
         <v>ROLF-3690FOC</v>
@@ -12063,10 +12063,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C124" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D124" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E124" t="str">
         <v>ROLF-3691FOC</v>
@@ -12152,10 +12152,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C125" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D125" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E125" t="str">
         <v>ROLF-3692FOC</v>
@@ -12241,10 +12241,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C126" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D126" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E126" t="str">
         <v>ROLF-3694FOC</v>
@@ -12330,10 +12330,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C127" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D127" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E127" t="str">
         <v>ROLF-3695FOC</v>
@@ -12419,10 +12419,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C128" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D128" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E128" t="str">
         <v>ROLF-3696FOC</v>
@@ -12508,10 +12508,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C129" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D129" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E129" t="str">
         <v>ROLF-3697FOC</v>
@@ -12597,10 +12597,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C130" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D130" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E130" t="str">
         <v>ROLF-3698FOC</v>
@@ -12686,10 +12686,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C131" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D131" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E131" t="str">
         <v>ROLF-3699FOC</v>
@@ -12775,10 +12775,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C132" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D132" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E132" t="str">
         <v>ROLF-3700FOC</v>
@@ -12864,10 +12864,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C133" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D133" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E133" t="str">
         <v>ROLF-3701FOC</v>
@@ -12953,10 +12953,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C134" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D134" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E134" t="str">
         <v>ROLF-3702FOC</v>
@@ -13042,10 +13042,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C135" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D135" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E135" t="str">
         <v>ROLF-3703FOC</v>
@@ -13131,10 +13131,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C136" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D136" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E136" t="str">
         <v>ROLF-3704FOC</v>
@@ -13220,10 +13220,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C137" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D137" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E137" t="str">
         <v>ROLF-3705FOC</v>
@@ -13309,10 +13309,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C138" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D138" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E138" t="str">
         <v>ROLF-3706FOC</v>
@@ -13398,10 +13398,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C139" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D139" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E139" t="str">
         <v>ROLF-3707FOC</v>
@@ -13487,10 +13487,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C140" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D140" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E140" t="str">
         <v>ROLF-3708FOC</v>
@@ -13576,10 +13576,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C141" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D141" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E141" t="str">
         <v>ROLF-3709FOC</v>
@@ -13665,10 +13665,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C142" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D142" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E142" t="str">
         <v>ROLF-3710FOC</v>
@@ -13754,10 +13754,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C143" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D143" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E143" t="str">
         <v>ROLF-3711FOC</v>
@@ -13843,10 +13843,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C144" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D144" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E144" t="str">
         <v>ROLF-3712FOC</v>
@@ -13932,10 +13932,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C145" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D145" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E145" t="str">
         <v>ROLF-3713FOC</v>
@@ -14021,10 +14021,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C146" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D146" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E146" t="str">
         <v>ROLF-3714FOC</v>
@@ -14110,10 +14110,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C147" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D147" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E147" t="str">
         <v>ROLF-3715FOC</v>
@@ -14199,10 +14199,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C148" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D148" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E148" t="str">
         <v>ROLF-3716PBO</v>
@@ -14288,10 +14288,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C149" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D149" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E149" t="str">
         <v>ROLF-3717PBO</v>
@@ -14377,10 +14377,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C150" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D150" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E150" t="str">
         <v>ROLF-3718PBO</v>
@@ -14466,10 +14466,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C151" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D151" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E151" t="str">
         <v>ROLF-3719PBO</v>
@@ -14555,10 +14555,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C152" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D152" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E152" t="str">
         <v>ROLF-3720PBO</v>
@@ -14644,10 +14644,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C153" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D153" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E153" t="str">
         <v>ROLF-3721PBO</v>
@@ -14733,10 +14733,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C154" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D154" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E154" t="str">
         <v>ROLF-3722PBO</v>
@@ -14822,10 +14822,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C155" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D155" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E155" t="str">
         <v>ROLF-3723PBO</v>
@@ -14911,10 +14911,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C156" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D156" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E156" t="str">
         <v>ROLF-3724PBO</v>
@@ -15000,10 +15000,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C157" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D157" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E157" t="str">
         <v>ROLF-3725PBO</v>
@@ -15089,10 +15089,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C158" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D158" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E158" t="str">
         <v>ROLF-3726PBO</v>
@@ -15178,10 +15178,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C159" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D159" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E159" t="str">
         <v>ROLF-3727PBO</v>
@@ -15267,10 +15267,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C160" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D160" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E160" t="str">
         <v>ROLF-3728PBO</v>
@@ -15356,10 +15356,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C161" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D161" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E161" t="str">
         <v>ROLF-3729PBO</v>
@@ -15445,10 +15445,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C162" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D162" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E162" t="str">
         <v>ROLF-3730PBO</v>
@@ -15534,10 +15534,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C163" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D163" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E163" t="str">
         <v>ROLF-3731PBO</v>
@@ -15623,10 +15623,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C164" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D164" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E164" t="str">
         <v>ROLF-3732PBO</v>
@@ -15712,10 +15712,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C165" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D165" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E165" t="str">
         <v>ROLF-3734PBO</v>
@@ -15801,10 +15801,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C166" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D166" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E166" t="str">
         <v>ROLF-3735PBO</v>
@@ -15890,10 +15890,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C167" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D167" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E167" t="str">
         <v>ROLF-3736PBO</v>
@@ -15979,10 +15979,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C168" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D168" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E168" t="str">
         <v>ROLF-3737PBO</v>
@@ -16068,10 +16068,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C169" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D169" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E169" t="str">
         <v>ROLF-3738PBO</v>
@@ -16157,10 +16157,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C170" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D170" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E170" t="str">
         <v>ROLF-3739PBO</v>
@@ -16246,10 +16246,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C171" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D171" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E171" t="str">
         <v>ROLF-3740PBO</v>
@@ -16335,10 +16335,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C172" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D172" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E172" t="str">
         <v>ROLF-3741PBO</v>
@@ -16424,10 +16424,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C173" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D173" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E173" t="str">
         <v>ROLF-3742PBO</v>
@@ -16513,10 +16513,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C174" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D174" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E174" t="str">
         <v>ROLF-3743PBO</v>
@@ -16602,10 +16602,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C175" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D175" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E175" t="str">
         <v>ROLF-3744PBO</v>
@@ -16691,10 +16691,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C176" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D176" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E176" t="str">
         <v>ROLF-3745PBO</v>
@@ -16780,10 +16780,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C177" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D177" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E177" t="str">
         <v>ROLF-3746PBO</v>
@@ -16869,10 +16869,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C178" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D178" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E178" t="str">
         <v>ROLF-3747PBO</v>
@@ -16958,10 +16958,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C179" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D179" t="str">
-        <v>eafc3525-a413-4ca2-a240-f93832e4f5f3</v>
+        <v>981c887e-22f2-449f-bfdb-115bb03da8b4</v>
       </c>
       <c r="E179" t="str">
         <v>ROLF-3652STY</v>
@@ -17047,10 +17047,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C180" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D180" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E180" t="str">
         <v>ROLF-0061D</v>
@@ -17136,10 +17136,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C181" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D181" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E181" t="str">
         <v>ROLF-0062D</v>
@@ -17225,10 +17225,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C182" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D182" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E182" t="str">
         <v>ROLF-0063D</v>
@@ -17314,10 +17314,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C183" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D183" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E183" t="str">
         <v>ROLF-0065D</v>
@@ -17403,10 +17403,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C184" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D184" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E184" t="str">
         <v>ROLF-0066D</v>
@@ -17492,10 +17492,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C185" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D185" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E185" t="str">
         <v>ROLF-0067D</v>
@@ -17581,10 +17581,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C186" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D186" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E186" t="str">
         <v>ROLF-0068D</v>
@@ -17670,10 +17670,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C187" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D187" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E187" t="str">
         <v>ROLF-0069D</v>
@@ -17759,10 +17759,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C188" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D188" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E188" t="str">
         <v>ROLF-0072D</v>
@@ -17848,10 +17848,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C189" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D189" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E189" t="str">
         <v>ROLF-0074D</v>
@@ -17937,10 +17937,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C190" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D190" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E190" t="str">
         <v>ROLF-0076D</v>
@@ -18026,10 +18026,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C191" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D191" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E191" t="str">
         <v>ROLF-0077D</v>
@@ -18115,10 +18115,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C192" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D192" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E192" t="str">
         <v>ROLF-3517</v>
@@ -18204,10 +18204,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C193" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D193" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E193" t="str">
         <v>ROLF-3518</v>
@@ -18293,10 +18293,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C194" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D194" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E194" t="str">
         <v>ROLF-3525</v>
@@ -18382,10 +18382,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C195" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D195" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E195" t="str">
         <v>ROLF-3526</v>
@@ -18471,10 +18471,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C196" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D196" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E196" t="str">
         <v>ROLF-3437</v>
@@ -18560,10 +18560,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C197" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D197" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E197" t="str">
         <v>ROLF-3438</v>
@@ -18649,10 +18649,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C198" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D198" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E198" t="str">
         <v>ROLF-3439</v>
@@ -18738,10 +18738,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C199" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D199" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E199" t="str">
         <v>ROLF-3512</v>
@@ -18827,10 +18827,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C200" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D200" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E200" t="str">
         <v>ROLF-3513</v>
@@ -18916,10 +18916,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C201" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D201" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E201" t="str">
         <v>ROLF-3514</v>
@@ -19005,10 +19005,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C202" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D202" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E202" t="str">
         <v>ROLF-3519</v>
@@ -19094,10 +19094,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C203" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D203" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E203" t="str">
         <v>ROLF-3520</v>
@@ -19183,10 +19183,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C204" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D204" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E204" t="str">
         <v>ROLF-3521</v>
@@ -19272,10 +19272,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C205" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D205" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E205" t="str">
         <v>ROLF-3522</v>
@@ -19361,10 +19361,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C206" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D206" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E206" t="str">
         <v>ROLF-3523</v>
@@ -19450,10 +19450,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C207" t="str">
-        <v>f29ecf9d-a497-41b7-8ba8-68e640324e7b</v>
+        <v>efbd8f85-88d3-4081-b358-4cde843c70a2</v>
       </c>
       <c r="D207" t="str">
-        <v>bffae373-f5f9-46bc-9da1-c5b896b4253a</v>
+        <v>1576f1a8-f984-4704-ace3-f9014ea37ba5</v>
       </c>
       <c r="E207" t="str">
         <v>ROLF-3524</v>
@@ -19539,10 +19539,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C208" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D208" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E208" t="str">
         <v>ROMF-2124-ROM</v>
@@ -19628,10 +19628,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C209" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D209" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E209" t="str">
         <v>ROMF-2125-ROM</v>
@@ -19717,10 +19717,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C210" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D210" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E210" t="str">
         <v>ROMF-2131-ROM</v>
@@ -19806,10 +19806,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C211" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D211" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E211" t="str">
         <v>ROMF-0739D-ROM</v>
@@ -19895,10 +19895,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C212" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D212" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E212" t="str">
         <v>ROMF-0749D-ROM</v>
@@ -19984,10 +19984,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C213" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D213" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E213" t="str">
         <v>ROMF-0743D-ROM</v>
@@ -20073,10 +20073,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C214" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D214" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E214" t="str">
         <v>ROMF-0745D-ROM</v>
@@ -20162,10 +20162,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C215" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D215" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E215" t="str">
         <v>ROMF-0748D-ROM</v>
@@ -20251,10 +20251,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C216" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D216" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E216" t="str">
         <v>ROMF-0740D-ROM</v>
@@ -20340,10 +20340,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C217" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D217" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E217" t="str">
         <v>ROMF-0700D-ROM</v>
@@ -20429,10 +20429,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C218" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D218" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E218" t="str">
         <v>ROMF-0702D-ROM</v>
@@ -20518,10 +20518,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C219" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D219" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E219" t="str">
         <v>ROMF-0706D-ROM</v>
@@ -20607,10 +20607,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C220" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D220" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E220" t="str">
         <v>ROMF-0703D-ROM</v>
@@ -20696,10 +20696,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C221" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D221" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E221" t="str">
         <v>ROMF-2130-ROM</v>
@@ -20785,10 +20785,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C222" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D222" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E222" t="str">
         <v>ROMF-2129-ROM</v>
@@ -20874,10 +20874,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C223" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D223" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E223" t="str">
         <v>ROMF-2127-ROM</v>
@@ -20963,10 +20963,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C224" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D224" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E224" t="str">
         <v>ROMF-2128-ROM</v>
@@ -21052,10 +21052,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C225" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D225" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E225" t="str">
         <v>ROMF-0692D-ROM</v>
@@ -21141,10 +21141,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C226" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D226" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E226" t="str">
         <v>ROMF-0717D-ROM</v>
@@ -21230,10 +21230,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C227" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D227" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E227" t="str">
         <v>ROMF-0718D-ROM</v>
@@ -21319,10 +21319,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C228" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D228" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E228" t="str">
         <v>ROMF-1992D-ROM</v>
@@ -21408,10 +21408,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C229" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D229" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E229" t="str">
         <v>ROMF-1673D-ROM</v>
@@ -21497,10 +21497,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C230" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D230" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E230" t="str">
         <v>ROMF-1664D-ROM</v>
@@ -21586,10 +21586,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C231" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D231" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E231" t="str">
         <v>ROMF-1649D-ROM</v>
@@ -21675,10 +21675,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C232" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D232" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E232" t="str">
         <v>ROMF-1993D-ROM</v>
@@ -21764,10 +21764,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C233" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D233" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E233" t="str">
         <v>ROMF-1621D-ROM</v>
@@ -21853,10 +21853,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C234" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D234" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E234" t="str">
         <v>ROMF-1994D-ROM</v>
@@ -21942,10 +21942,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C235" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D235" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E235" t="str">
         <v>ROMF-2126-ROM</v>
@@ -22031,10 +22031,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C236" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D236" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E236" t="str">
         <v>ROMF-1995D-ROM</v>
@@ -22120,10 +22120,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C237" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D237" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E237" t="str">
         <v>ROMF-2118-ROM</v>
@@ -22209,10 +22209,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C238" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D238" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E238" t="str">
         <v>ROMF-2119-ROM</v>
@@ -22298,10 +22298,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C239" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D239" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E239" t="str">
         <v>ROMF-2120-ROM</v>
@@ -22387,10 +22387,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C240" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D240" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E240" t="str">
         <v>ROMF-2121-ROM</v>
@@ -22476,10 +22476,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C241" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D241" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E241" t="str">
         <v>ROMF-2122-ROM</v>
@@ -22565,10 +22565,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C242" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D242" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E242" t="str">
         <v>ROMF-0753D-ROM</v>
@@ -22654,10 +22654,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C243" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D243" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E243" t="str">
         <v>ROMF-0751D-ROM</v>
@@ -22743,10 +22743,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C244" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D244" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E244" t="str">
         <v>ROMF-0760D-ROM</v>
@@ -22832,10 +22832,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C245" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D245" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E245" t="str">
         <v>ROMF-0764D-ROM</v>
@@ -22921,10 +22921,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C246" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D246" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E246" t="str">
         <v>ROMF-0763D-ROM</v>
@@ -23010,10 +23010,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C247" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D247" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E247" t="str">
         <v>ROMF-0762D-ROM</v>
@@ -23099,10 +23099,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C248" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D248" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E248" t="str">
         <v>ROMF-0761D-ROM</v>
@@ -23188,10 +23188,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C249" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D249" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E249" t="str">
         <v>ROMF-0831D-ROM</v>
@@ -23277,10 +23277,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C250" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D250" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E250" t="str">
         <v>ROMF-0819D-ROM</v>
@@ -23366,10 +23366,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C251" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D251" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E251" t="str">
         <v>ROMF-0818D-ROM</v>
@@ -23455,10 +23455,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C252" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D252" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E252" t="str">
         <v>ROMF-0817D-ROM</v>
@@ -23544,10 +23544,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C253" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D253" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E253" t="str">
         <v>ROMF-0820D-ROM</v>
@@ -23633,10 +23633,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C254" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D254" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E254" t="str">
         <v>ROMF-0834D-ROM</v>
@@ -23722,10 +23722,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C255" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D255" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E255" t="str">
         <v>ROMF-0832D-ROM</v>
@@ -23811,10 +23811,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C256" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D256" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E256" t="str">
         <v>ROMF-0833D-ROM</v>
@@ -23900,10 +23900,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C257" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D257" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E257" t="str">
         <v>ROMF-0816D-ROM</v>
@@ -23989,10 +23989,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C258" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D258" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E258" t="str">
         <v>ROMF-2100-ROM</v>
@@ -24078,10 +24078,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C259" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D259" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E259" t="str">
         <v>ROMF-2101-ROM</v>
@@ -24167,10 +24167,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C260" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D260" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E260" t="str">
         <v>ROMF-2102-ROM</v>
@@ -24256,10 +24256,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C261" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D261" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E261" t="str">
         <v>ROMF-2096-ROM</v>
@@ -24345,10 +24345,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C262" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D262" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E262" t="str">
         <v>ROMF-2098-ROM</v>
@@ -24434,10 +24434,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C263" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D263" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E263" t="str">
         <v>ROMF-2097-ROM</v>
@@ -24523,10 +24523,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C264" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D264" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E264" t="str">
         <v>ROMF-2099-ROM</v>
@@ -24612,10 +24612,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C265" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D265" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E265" t="str">
         <v>ROMF-2095-ROM</v>
@@ -24701,10 +24701,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C266" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D266" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E266" t="str">
         <v>ROMF-2104-ROM</v>
@@ -24790,10 +24790,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C267" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D267" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E267" t="str">
         <v>ROMF-1663D-ROM</v>
@@ -24879,10 +24879,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C268" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D268" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E268" t="str">
         <v>ROMF-2105-ROM</v>
@@ -24968,10 +24968,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C269" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D269" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E269" t="str">
         <v>ROMF-2103-ROM</v>
@@ -25057,10 +25057,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C270" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D270" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E270" t="str">
         <v>ROMF-2106-ROM</v>
@@ -25146,10 +25146,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C271" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D271" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E271" t="str">
         <v>ROMF-1958D-ROM</v>
@@ -25235,10 +25235,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C272" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D272" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E272" t="str">
         <v>ROMF-2114-ROM</v>
@@ -25324,10 +25324,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C273" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D273" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E273" t="str">
         <v>ROMF-2112-ROM</v>
@@ -25413,10 +25413,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C274" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D274" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E274" t="str">
         <v>ROMF-2116-ROM</v>
@@ -25502,10 +25502,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C275" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D275" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E275" t="str">
         <v>ROMF-2113-ROM</v>
@@ -25591,10 +25591,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C276" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D276" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E276" t="str">
         <v>ROMF-2117-ROM</v>
@@ -25680,10 +25680,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C277" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D277" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E277" t="str">
         <v>ROMF-2115-ROM</v>
@@ -25769,10 +25769,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C278" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D278" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E278" t="str">
         <v>ROMF-2109-ROM</v>
@@ -25858,10 +25858,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C279" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D279" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E279" t="str">
         <v>ROMF-2110-ROM</v>
@@ -25947,10 +25947,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C280" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D280" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E280" t="str">
         <v>ROMF-2111-ROM</v>
@@ -26036,10 +26036,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C281" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D281" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E281" t="str">
         <v>ROMF-1625D-ROM</v>
@@ -26125,10 +26125,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C282" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D282" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E282" t="str">
         <v>ROMF-2107-ROM</v>
@@ -26214,10 +26214,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C283" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D283" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E283" t="str">
         <v>ROMF-2108-ROM</v>
@@ -26303,10 +26303,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C284" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D284" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E284" t="str">
         <v>ROMF-2123-ROM</v>
@@ -26392,10 +26392,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C285" t="str">
-        <v>0a7f11db-d253-437b-a563-759f17975453</v>
+        <v>4c164fee-2771-436f-ae9b-f0dfa8dbabd8</v>
       </c>
       <c r="D285" t="str">
-        <v>d4714f57-a6a9-4046-a203-615eae75e1bf</v>
+        <v>f882cefc-bee1-4dbf-90d8-bbf56ace8365</v>
       </c>
       <c r="E285" t="str">
         <v>ROMF-1620D-ROM</v>
@@ -26481,10 +26481,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C286" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D286" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E286" t="str">
         <v>VERF-0021</v>
@@ -26570,10 +26570,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C287" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D287" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E287" t="str">
         <v>VERF-0107</v>
@@ -26659,10 +26659,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C288" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D288" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E288" t="str">
         <v>VERF-0019</v>
@@ -26748,10 +26748,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C289" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D289" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E289" t="str">
         <v>VERF-0020</v>
@@ -26837,10 +26837,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C290" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D290" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E290" t="str">
         <v>VERF-0131</v>
@@ -26926,10 +26926,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C291" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D291" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E291" t="str">
         <v>VERF-0132</v>
@@ -27015,10 +27015,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C292" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D292" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E292" t="str">
         <v>VERF-3145</v>
@@ -27104,10 +27104,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C293" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D293" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E293" t="str">
         <v>VERF-3338</v>
@@ -27193,10 +27193,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C294" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D294" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E294" t="str">
         <v>VERF-3339</v>
@@ -27282,10 +27282,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C295" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D295" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E295" t="str">
         <v>VERF-3340</v>
@@ -27371,10 +27371,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C296" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D296" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E296" t="str">
         <v>VERF-3341</v>
@@ -27460,10 +27460,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C297" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D297" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E297" t="str">
         <v>VERF-3342</v>
@@ -27549,10 +27549,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C298" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D298" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E298" t="str">
         <v>VERF-3343</v>
@@ -27638,10 +27638,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C299" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D299" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E299" t="str">
         <v>VERF-0153</v>
@@ -27727,10 +27727,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C300" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D300" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E300" t="str">
         <v>VERF-0154</v>
@@ -27816,10 +27816,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C301" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D301" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E301" t="str">
         <v>VERF-0155</v>
@@ -27905,10 +27905,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C302" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D302" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E302" t="str">
         <v>VERF-0156</v>
@@ -27994,10 +27994,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C303" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D303" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E303" t="str">
         <v>VERF-0157</v>
@@ -28083,10 +28083,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C304" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D304" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E304" t="str">
         <v>VERF-0158</v>
@@ -28172,10 +28172,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C305" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D305" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E305" t="str">
         <v>VERF-0159</v>
@@ -28261,10 +28261,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C306" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D306" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E306" t="str">
         <v>VERF-0160</v>
@@ -28350,10 +28350,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C307" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D307" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E307" t="str">
         <v>VERF-0161</v>
@@ -28439,10 +28439,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C308" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D308" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E308" t="str">
         <v>VERF-0162</v>
@@ -28528,10 +28528,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C309" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D309" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E309" t="str">
         <v>VERF-0163</v>
@@ -28617,10 +28617,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C310" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D310" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E310" t="str">
         <v>VERF-0164</v>
@@ -28706,10 +28706,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C311" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D311" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E311" t="str">
         <v>VERF-0165</v>
@@ -28795,10 +28795,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C312" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D312" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E312" t="str">
         <v>VERF-0166</v>
@@ -28884,10 +28884,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C313" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D313" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E313" t="str">
         <v>VERF-0084</v>
@@ -28973,10 +28973,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C314" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D314" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E314" t="str">
         <v>VERF-0080</v>
@@ -29062,10 +29062,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C315" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D315" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E315" t="str">
         <v>VERF-0081</v>
@@ -29151,10 +29151,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C316" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D316" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E316" t="str">
         <v>VERF-0085</v>
@@ -29240,10 +29240,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C317" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D317" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E317" t="str">
         <v>VERF-0087</v>
@@ -29329,10 +29329,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C318" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D318" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E318" t="str">
         <v>VERF-0090</v>
@@ -29418,10 +29418,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C319" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D319" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E319" t="str">
         <v>VERF-3098</v>
@@ -29507,10 +29507,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C320" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D320" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E320" t="str">
         <v>VERF-3099</v>
@@ -29596,10 +29596,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C321" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D321" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E321" t="str">
         <v>VERF-3100</v>
@@ -29685,10 +29685,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C322" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D322" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E322" t="str">
         <v>VERF-3101</v>
@@ -29774,10 +29774,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C323" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D323" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E323" t="str">
         <v>VERF-3102</v>
@@ -29863,10 +29863,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C324" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D324" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E324" t="str">
         <v>VERF-3103</v>
@@ -29952,10 +29952,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C325" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D325" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E325" t="str">
         <v>VERF-3104</v>
@@ -30041,10 +30041,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C326" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D326" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E326" t="str">
         <v>VERF-3113</v>
@@ -30130,10 +30130,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C327" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D327" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E327" t="str">
         <v>VERF-3124</v>
@@ -30219,10 +30219,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C328" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D328" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E328" t="str">
         <v>VERF-3125</v>
@@ -30308,10 +30308,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C329" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D329" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E329" t="str">
         <v>VERF-3126</v>
@@ -30397,10 +30397,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C330" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D330" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E330" t="str">
         <v>VERF-0151</v>
@@ -30486,10 +30486,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C331" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D331" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E331" t="str">
         <v>VERF-0152</v>
@@ -30575,10 +30575,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C332" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D332" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E332" t="str">
         <v>VERF-0167</v>
@@ -30664,10 +30664,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C333" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D333" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E333" t="str">
         <v>VERF-0168</v>
@@ -30753,10 +30753,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C334" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D334" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E334" t="str">
         <v>VERF-0169</v>
@@ -30842,10 +30842,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C335" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D335" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E335" t="str">
         <v>VERF-0192</v>
@@ -30931,10 +30931,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C336" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D336" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E336" t="str">
         <v>VERF-0193</v>
@@ -31020,10 +31020,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C337" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D337" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E337" t="str">
         <v>VERF-0194</v>
@@ -31109,10 +31109,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C338" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D338" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E338" t="str">
         <v>VERF-0195</v>
@@ -31198,10 +31198,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C339" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D339" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E339" t="str">
         <v>VERF-0196</v>
@@ -31287,10 +31287,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C340" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D340" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E340" t="str">
         <v>VERF-0197</v>
@@ -31376,10 +31376,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C341" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D341" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E341" t="str">
         <v>VERF-0198</v>
@@ -31465,10 +31465,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C342" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D342" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E342" t="str">
         <v>VERF-0199</v>
@@ -31554,10 +31554,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C343" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D343" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E343" t="str">
         <v>VERF-0200</v>
@@ -31643,10 +31643,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C344" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D344" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E344" t="str">
         <v>VERF-0201</v>
@@ -31732,10 +31732,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C345" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D345" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E345" t="str">
         <v>VERF-0202</v>
@@ -31821,10 +31821,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C346" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D346" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E346" t="str">
         <v>VERF-0028</v>
@@ -31910,10 +31910,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C347" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D347" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E347" t="str">
         <v>VERF-0023</v>
@@ -31999,10 +31999,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C348" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D348" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E348" t="str">
         <v>VERF-0024</v>
@@ -32088,10 +32088,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C349" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D349" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E349" t="str">
         <v>VERF-0039</v>
@@ -32177,10 +32177,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C350" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D350" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E350" t="str">
         <v>VERF-0041</v>
@@ -32266,10 +32266,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C351" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D351" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E351" t="str">
         <v>VERF-0061</v>
@@ -32355,10 +32355,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C352" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D352" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E352" t="str">
         <v>VERF-0065</v>
@@ -32444,10 +32444,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C353" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D353" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E353" t="str">
         <v>VERF-0067</v>
@@ -32533,10 +32533,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C354" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D354" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E354" t="str">
         <v>VERF-0069</v>
@@ -32622,10 +32622,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C355" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D355" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E355" t="str">
         <v>VERF-3105</v>
@@ -32711,10 +32711,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C356" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D356" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E356" t="str">
         <v>VERF-3106</v>
@@ -32800,10 +32800,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C357" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D357" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E357" t="str">
         <v>VERF-3107</v>
@@ -32889,10 +32889,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C358" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D358" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E358" t="str">
         <v>VERF-3108</v>
@@ -32978,10 +32978,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C359" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D359" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E359" t="str">
         <v>VERF-3109</v>
@@ -33067,10 +33067,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C360" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D360" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E360" t="str">
         <v>VERF-3110</v>
@@ -33156,10 +33156,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C361" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D361" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E361" t="str">
         <v>VERF-3111</v>
@@ -33245,10 +33245,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C362" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D362" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E362" t="str">
         <v>VERF-3112</v>
@@ -33334,10 +33334,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C363" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D363" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E363" t="str">
         <v>VERF-3115</v>
@@ -33423,10 +33423,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C364" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D364" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E364" t="str">
         <v>VERF-3117</v>
@@ -33512,10 +33512,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C365" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D365" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E365" t="str">
         <v>VERF-3118</v>
@@ -33601,10 +33601,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C366" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D366" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E366" t="str">
         <v>VERF-3119</v>
@@ -33690,10 +33690,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C367" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D367" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E367" t="str">
         <v>VERF-3121</v>
@@ -33779,10 +33779,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C368" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D368" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E368" t="str">
         <v>VERF-0026</v>
@@ -33868,10 +33868,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C369" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D369" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E369" t="str">
         <v>VERF-0029</v>
@@ -33957,10 +33957,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C370" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D370" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E370" t="str">
         <v>VERF-0206</v>
@@ -34046,10 +34046,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C371" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D371" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E371" t="str">
         <v>VERF-0207</v>
@@ -34135,10 +34135,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C372" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D372" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E372" t="str">
         <v>VERF-0214</v>
@@ -34224,10 +34224,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C373" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D373" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E373" t="str">
         <v>VERF-0215</v>
@@ -34313,10 +34313,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C374" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D374" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E374" t="str">
         <v>VERF-0216</v>
@@ -34402,10 +34402,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C375" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D375" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E375" t="str">
         <v>VERF-3527</v>
@@ -34491,10 +34491,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C376" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D376" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E376" t="str">
         <v>VERF-3528</v>
@@ -34580,10 +34580,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C377" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D377" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E377" t="str">
         <v>VERF-3529</v>
@@ -34669,10 +34669,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C378" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D378" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E378" t="str">
         <v>VERF-3530</v>
@@ -34758,10 +34758,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C379" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D379" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E379" t="str">
         <v>VERF-3531</v>
@@ -34847,10 +34847,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C380" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D380" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E380" t="str">
         <v>VERF-3838</v>
@@ -34936,10 +34936,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C381" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D381" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E381" t="str">
         <v>VERF-0032</v>
@@ -35025,10 +35025,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C382" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D382" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E382" t="str">
         <v>VERF-0042</v>
@@ -35114,10 +35114,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C383" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D383" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E383" t="str">
         <v>VERF-0044</v>
@@ -35203,10 +35203,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C384" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D384" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E384" t="str">
         <v>VERF-0045</v>
@@ -35292,10 +35292,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C385" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D385" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E385" t="str">
         <v>VERF-0051</v>
@@ -35381,10 +35381,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C386" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D386" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E386" t="str">
         <v>VERF-0142</v>
@@ -35470,10 +35470,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C387" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D387" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E387" t="str">
         <v>VERF-3122</v>
@@ -35559,10 +35559,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C388" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D388" t="str">
-        <v>6e96ca33-a0b6-4ab3-9692-872e04c1ba42</v>
+        <v>10a80851-9817-4a93-8604-d0ccc99efd1a</v>
       </c>
       <c r="E388" t="str">
         <v>VERF-3123</v>
@@ -35648,10 +35648,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C389" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D389" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E389" t="str">
         <v>VERF-0172</v>
@@ -35737,10 +35737,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C390" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D390" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E390" t="str">
         <v>VERF-0173</v>
@@ -35826,10 +35826,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C391" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D391" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E391" t="str">
         <v>VERF-0174</v>
@@ -35915,10 +35915,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C392" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D392" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E392" t="str">
         <v>VERF-0175</v>
@@ -36004,10 +36004,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C393" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D393" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E393" t="str">
         <v>VERF-0176</v>
@@ -36093,10 +36093,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C394" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D394" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E394" t="str">
         <v>VERF-0177</v>
@@ -36182,10 +36182,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C395" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D395" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E395" t="str">
         <v>VERF-0178</v>
@@ -36271,10 +36271,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C396" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D396" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E396" t="str">
         <v>VERF-0179</v>
@@ -36360,10 +36360,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C397" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D397" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E397" t="str">
         <v>VERF-0180</v>
@@ -36449,10 +36449,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C398" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D398" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E398" t="str">
         <v>VERF-0181</v>
@@ -36538,10 +36538,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C399" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D399" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E399" t="str">
         <v>VERF-0182</v>
@@ -36627,10 +36627,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C400" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D400" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E400" t="str">
         <v>VERF-0183</v>
@@ -36716,10 +36716,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C401" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D401" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E401" t="str">
         <v>VERF-0184</v>
@@ -36805,10 +36805,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C402" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D402" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E402" t="str">
         <v>VERF-0185</v>
@@ -36894,10 +36894,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C403" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D403" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E403" t="str">
         <v>VERF-0186</v>
@@ -36983,10 +36983,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C404" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D404" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E404" t="str">
         <v>VERF-0187</v>
@@ -37072,10 +37072,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C405" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D405" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E405" t="str">
         <v>VERF-0188</v>
@@ -37161,10 +37161,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C406" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D406" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E406" t="str">
         <v>VERF-0189</v>
@@ -37250,10 +37250,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C407" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D407" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E407" t="str">
         <v>VERF-0190</v>
@@ -37339,10 +37339,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C408" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D408" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E408" t="str">
         <v>VERF-0191</v>
@@ -37428,10 +37428,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C409" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D409" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E409" t="str">
         <v>VERF-0208</v>
@@ -37517,10 +37517,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C410" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D410" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E410" t="str">
         <v>VERF-0209</v>
@@ -37606,10 +37606,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C411" t="str">
-        <v>33473589-e468-4c95-b2dd-5888f97cc275</v>
+        <v>521b0784-bfaf-4ee6-8d32-7c51d575b130</v>
       </c>
       <c r="D411" t="str">
-        <v>99a062f3-eccf-4b29-8008-254bc15c5cc3</v>
+        <v>286b7d2d-0ae6-45ad-8fe6-e0a7ea77fbd0</v>
       </c>
       <c r="E411" t="str">
         <v>VERF-0211</v>
@@ -37695,10 +37695,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C412" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D412" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E412" t="str">
         <v>FIFT-0001</v>
@@ -37784,10 +37784,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C413" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D413" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E413" t="str">
         <v>FIFT-0002</v>
@@ -37873,10 +37873,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C414" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D414" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E414" t="str">
         <v>FIFT-0003</v>
@@ -37962,10 +37962,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C415" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D415" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E415" t="str">
         <v>FIFT-0051</v>
@@ -38051,10 +38051,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C416" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D416" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E416" t="str">
         <v>FIFT-0052</v>
@@ -38140,10 +38140,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C417" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D417" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E417" t="str">
         <v>FIFT-0053</v>
@@ -38229,10 +38229,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C418" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D418" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E418" t="str">
         <v>FIFT-0054</v>
@@ -38318,10 +38318,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C419" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D419" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E419" t="str">
         <v>FIFT-0055</v>
@@ -38407,10 +38407,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C420" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D420" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E420" t="str">
         <v>FIFT-0068</v>
@@ -38496,10 +38496,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C421" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D421" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E421" t="str">
         <v>FIFT-0069</v>
@@ -38585,10 +38585,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C422" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D422" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E422" t="str">
         <v>FIFT-0070</v>
@@ -38674,10 +38674,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C423" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D423" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E423" t="str">
         <v>FIFT-0071</v>
@@ -38763,10 +38763,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C424" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D424" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E424" t="str">
         <v>FIFT-0072</v>
@@ -38852,10 +38852,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C425" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D425" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E425" t="str">
         <v>FIFT-0073</v>
@@ -38941,10 +38941,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C426" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D426" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E426" t="str">
         <v>FIFT-0074</v>
@@ -39030,10 +39030,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C427" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D427" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E427" t="str">
         <v>FIFT-0075</v>
@@ -39119,10 +39119,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C428" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D428" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E428" t="str">
         <v>FIFT-0100</v>
@@ -39208,10 +39208,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C429" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D429" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E429" t="str">
         <v>FIFT-0101</v>
@@ -39297,10 +39297,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C430" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D430" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E430" t="str">
         <v>FIFT-0056</v>
@@ -39386,10 +39386,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C431" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D431" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E431" t="str">
         <v>FIFT-0057</v>
@@ -39475,10 +39475,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C432" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D432" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E432" t="str">
         <v>FIFT-0058</v>
@@ -39564,10 +39564,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C433" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D433" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E433" t="str">
         <v>FIFT-0059</v>
@@ -39653,10 +39653,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C434" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D434" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E434" t="str">
         <v>FIFT-0008</v>
@@ -39742,10 +39742,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C435" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D435" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E435" t="str">
         <v>FIFT-0009</v>
@@ -39831,10 +39831,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C436" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D436" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E436" t="str">
         <v>FIFT-0010</v>
@@ -39920,10 +39920,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C437" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D437" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E437" t="str">
         <v>FIFT-0011</v>
@@ -40009,10 +40009,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C438" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D438" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E438" t="str">
         <v>FIFT-0012</v>
@@ -40098,10 +40098,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C439" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D439" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E439" t="str">
         <v>FIFT-0013</v>
@@ -40187,10 +40187,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C440" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D440" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E440" t="str">
         <v>FIFT-0014</v>
@@ -40276,10 +40276,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C441" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D441" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E441" t="str">
         <v>FIFT-0060</v>
@@ -40365,10 +40365,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C442" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D442" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E442" t="str">
         <v>FIFT-0061</v>
@@ -40454,10 +40454,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C443" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D443" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E443" t="str">
         <v>FIFT-0062</v>
@@ -40543,10 +40543,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C444" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D444" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E444" t="str">
         <v>FIFT-0063</v>
@@ -40632,10 +40632,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C445" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D445" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E445" t="str">
         <v>FIFT-0080</v>
@@ -40721,10 +40721,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C446" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D446" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E446" t="str">
         <v>FIFT-0081</v>
@@ -40810,10 +40810,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C447" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D447" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E447" t="str">
         <v>FIFT-0082</v>
@@ -40899,10 +40899,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C448" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D448" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E448" t="str">
         <v>FIFT-0083</v>
@@ -40988,10 +40988,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C449" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D449" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E449" t="str">
         <v>FIFT-0015</v>
@@ -41077,10 +41077,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C450" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D450" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E450" t="str">
         <v>FIFT-0016</v>
@@ -41166,10 +41166,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C451" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D451" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E451" t="str">
         <v>FIFT-0017</v>
@@ -41255,10 +41255,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C452" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D452" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E452" t="str">
         <v>FIFT-0018</v>
@@ -41344,10 +41344,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C453" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D453" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E453" t="str">
         <v>FIFT-0019</v>
@@ -41433,10 +41433,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C454" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D454" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E454" t="str">
         <v>FIFT-0020</v>
@@ -41522,10 +41522,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C455" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D455" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E455" t="str">
         <v>FIFT-0021</v>
@@ -41611,10 +41611,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C456" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D456" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E456" t="str">
         <v>FIFT-0022</v>
@@ -41700,10 +41700,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C457" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D457" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E457" t="str">
         <v>FIFT-0023</v>
@@ -41789,10 +41789,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C458" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D458" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E458" t="str">
         <v>FIFT-0024</v>
@@ -41878,10 +41878,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C459" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D459" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E459" t="str">
         <v>FIFT-0025</v>
@@ -41967,10 +41967,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C460" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D460" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E460" t="str">
         <v>FIFT-0026</v>
@@ -42056,10 +42056,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C461" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D461" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E461" t="str">
         <v>FIFT-0076</v>
@@ -42145,10 +42145,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C462" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D462" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E462" t="str">
         <v>FIFT-0077</v>
@@ -42234,10 +42234,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C463" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D463" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E463" t="str">
         <v>FIFT-0078</v>
@@ -42323,10 +42323,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C464" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D464" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E464" t="str">
         <v>FIFT-0079</v>
@@ -42412,10 +42412,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C465" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D465" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E465" t="str">
         <v>FIFT-0029</v>
@@ -42501,10 +42501,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C466" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D466" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E466" t="str">
         <v>FIFT-0030</v>
@@ -42590,10 +42590,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C467" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D467" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E467" t="str">
         <v>FIFT-0031</v>
@@ -42679,10 +42679,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C468" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D468" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E468" t="str">
         <v>FIFT-0032</v>
@@ -42768,10 +42768,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C469" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D469" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E469" t="str">
         <v>FIFT-0086</v>
@@ -42857,10 +42857,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C470" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D470" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E470" t="str">
         <v>FIFT-0087</v>
@@ -42946,10 +42946,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C471" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D471" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E471" t="str">
         <v>FIFT-0084</v>
@@ -43035,10 +43035,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C472" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D472" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E472" t="str">
         <v>FIFT-0085</v>
@@ -43124,10 +43124,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C473" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D473" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E473" t="str">
         <v>FIFT-0064</v>
@@ -43213,10 +43213,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C474" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D474" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E474" t="str">
         <v>FIFT-0065</v>
@@ -43302,10 +43302,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C475" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D475" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E475" t="str">
         <v>FIFT-0066</v>
@@ -43391,10 +43391,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C476" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D476" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E476" t="str">
         <v>FIFT-0067</v>
@@ -43480,10 +43480,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C477" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D477" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E477" t="str">
         <v>FIFT-0033</v>
@@ -43569,10 +43569,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C478" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D478" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E478" t="str">
         <v>FIFT-0034</v>
@@ -43658,10 +43658,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C479" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D479" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E479" t="str">
         <v>FIFT-0035</v>
@@ -43747,10 +43747,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C480" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D480" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E480" t="str">
         <v>FIFT-0036</v>
@@ -43836,10 +43836,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C481" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D481" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E481" t="str">
         <v>FIFT-0037</v>
@@ -43925,10 +43925,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C482" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D482" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E482" t="str">
         <v>FIFT-0105ATR</v>
@@ -44014,10 +44014,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C483" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D483" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E483" t="str">
         <v>FIFT-0107ATR</v>
@@ -44103,10 +44103,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C484" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D484" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E484" t="str">
         <v>FIFT-0097ATR</v>
@@ -44192,10 +44192,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C485" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D485" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E485" t="str">
         <v>FIFT-0094ATR</v>
@@ -44281,10 +44281,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C486" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D486" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E486" t="str">
         <v>FIFT-0088</v>
@@ -44370,10 +44370,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C487" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D487" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E487" t="str">
         <v>FIFT-0089</v>
@@ -44459,10 +44459,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C488" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D488" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E488" t="str">
         <v>FIFT-0090</v>
@@ -44548,10 +44548,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C489" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D489" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E489" t="str">
         <v>FIFT-0091</v>
@@ -44637,10 +44637,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C490" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D490" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E490" t="str">
         <v>FIFT-0102</v>
@@ -44726,10 +44726,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C491" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D491" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E491" t="str">
         <v>FIFT-0095ATR</v>
@@ -44815,10 +44815,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C492" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D492" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E492" t="str">
         <v>FIFT-0099ATR</v>
@@ -44904,10 +44904,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C493" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D493" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E493" t="str">
         <v>FIFT-0108ATR</v>
@@ -44993,10 +44993,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C494" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D494" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E494" t="str">
         <v>FIFT-0109ATR</v>
@@ -45082,10 +45082,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C495" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D495" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E495" t="str">
         <v>FIFT-0110JBO</v>
@@ -45171,10 +45171,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C496" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D496" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E496" t="str">
         <v>FIFT-0092JBO</v>
@@ -45260,10 +45260,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C497" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D497" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E497" t="str">
         <v>FIFT-0104JBO</v>
@@ -45349,10 +45349,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C498" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D498" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E498" t="str">
         <v>FIFT-0093JBO</v>
@@ -45438,10 +45438,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C499" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D499" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E499" t="str">
         <v>FIFT-0098JBO</v>
@@ -45527,10 +45527,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C500" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D500" t="str">
-        <v>137872b7-a300-44d7-b4a8-ea442eaa5f5b</v>
+        <v>17a81761-7a8e-4752-920e-bbe544b4fc9a</v>
       </c>
       <c r="E500" t="str">
         <v>FIFT-0096JBO</v>
@@ -45616,10 +45616,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C501" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D501" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E501" t="str">
         <v>FIFT-0106JBO</v>
@@ -45705,10 +45705,10 @@
         <v>Dimout Zebra Blinds</v>
       </c>
       <c r="C502" t="str">
-        <v>a44dbd56-0cec-40f2-b0d2-6bddec0b0c18</v>
+        <v>ee9cfb27-68ae-4084-b967-aa7a972ad8a9</v>
       </c>
       <c r="D502" t="str">
-        <v>f6d65aca-755e-42ec-af32-b51efc69fd84</v>
+        <v>71bce6fc-d624-47d1-a14f-c76d5b5902eb</v>
       </c>
       <c r="E502" t="str">
         <v>FIFT-0103JBO</v>
